--- a/andmestikud/vaktsineerimine.xlsx
+++ b/andmestikud/vaktsineerimine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rauno\Desktop\andmetenika_streamlitrakendus\andmestikud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E64682-0328-4DC1-A887-B9F916BE6F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0466C05-A06C-4D58-969E-24452A367654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="31">
   <si>
     <t>Läkaköha</t>
   </si>
@@ -77,12 +77,6 @@
   </si>
   <si>
     <t>Võru maakond</t>
-  </si>
-  <si>
-    <t>Sisemine referentskood:</t>
-  </si>
-  <si>
-    <t>NH11</t>
   </si>
   <si>
     <t>Tuberkuloos</t>
@@ -497,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M373"/>
+  <dimension ref="A1:M347"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="A355" workbookViewId="0">
+      <selection activeCell="A372" sqref="A372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -518,16 +512,16 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -536,25 +530,25 @@
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -601,7 +595,7 @@
         <v>2004</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2">
         <v>96.4</v>
@@ -718,7 +712,7 @@
         <v>2004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2">
         <v>99.1</v>
@@ -1303,7 +1297,7 @@
         <v>2005</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C21" s="2">
         <v>97.4</v>
@@ -1420,7 +1414,7 @@
         <v>2005</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C24" s="2">
         <v>98.5</v>
@@ -2005,7 +1999,7 @@
         <v>2006</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C39" s="2">
         <v>96.9</v>
@@ -2122,7 +2116,7 @@
         <v>2006</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C42" s="2">
         <v>98.6</v>
@@ -2707,7 +2701,7 @@
         <v>2007</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C57" s="2">
         <v>95.5</v>
@@ -2824,7 +2818,7 @@
         <v>2007</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C60" s="2">
         <v>98.8</v>
@@ -3409,7 +3403,7 @@
         <v>2008</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C75" s="2">
         <v>96.4</v>
@@ -3526,7 +3520,7 @@
         <v>2008</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C78" s="2">
         <v>99.4</v>
@@ -4111,7 +4105,7 @@
         <v>2009</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C93" s="2">
         <v>95.1</v>
@@ -4228,7 +4222,7 @@
         <v>2009</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C96" s="2">
         <v>98.7</v>
@@ -4813,7 +4807,7 @@
         <v>2010</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C111" s="2">
         <v>96.6</v>
@@ -4930,7 +4924,7 @@
         <v>2010</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C114" s="2">
         <v>98.6</v>
@@ -5515,7 +5509,7 @@
         <v>2011</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C129" s="2">
         <v>93.2</v>
@@ -5632,7 +5626,7 @@
         <v>2011</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C132" s="2">
         <v>98.5</v>
@@ -6217,7 +6211,7 @@
         <v>2012</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C147" s="2">
         <v>94.4</v>
@@ -6334,7 +6328,7 @@
         <v>2012</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C150" s="2">
         <v>96.8</v>
@@ -6919,7 +6913,7 @@
         <v>2013</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C165" s="2">
         <v>92.5</v>
@@ -7036,7 +7030,7 @@
         <v>2013</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C168" s="2">
         <v>97.2</v>
@@ -7623,7 +7617,7 @@
         <v>2014</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C183" s="2">
         <v>92.1</v>
@@ -7746,7 +7740,7 @@
         <v>2014</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C186" s="2">
         <v>98.2</v>
@@ -8361,7 +8355,7 @@
         <v>2015</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C201" s="2">
         <v>92.9</v>
@@ -8484,7 +8478,7 @@
         <v>2015</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C204" s="2">
         <v>97.2</v>
@@ -9099,7 +9093,7 @@
         <v>2016</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C219" s="2">
         <v>91.2</v>
@@ -9222,7 +9216,7 @@
         <v>2016</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C222" s="2">
         <v>98.7</v>
@@ -9837,7 +9831,7 @@
         <v>2017</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C237" s="2">
         <v>92.5</v>
@@ -9960,7 +9954,7 @@
         <v>2017</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C240" s="2">
         <v>96.6</v>
@@ -10575,7 +10569,7 @@
         <v>2018</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C255" s="2">
         <v>92.3</v>
@@ -10698,7 +10692,7 @@
         <v>2018</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C258" s="2">
         <v>97.2</v>
@@ -11313,7 +11307,7 @@
         <v>2019</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C273" s="2">
         <v>89.5</v>
@@ -11436,7 +11430,7 @@
         <v>2019</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C276" s="2">
         <v>97</v>
@@ -12051,7 +12045,7 @@
         <v>2020</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C291" s="2">
         <v>90.2</v>
@@ -12174,7 +12168,7 @@
         <v>2020</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C294" s="2">
         <v>92.7</v>
@@ -12787,7 +12781,7 @@
         <v>2021</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C309" s="2">
         <v>85.2</v>
@@ -12904,7 +12898,7 @@
         <v>2021</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C312" s="2">
         <v>93.4</v>
@@ -13491,7 +13485,7 @@
         <v>2023</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C327" s="2">
         <v>82.6</v>
@@ -13614,7 +13608,7 @@
         <v>2023</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C330" s="2">
         <v>74.7</v>
@@ -14191,16 +14185,6 @@
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A347" s="3"/>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A372" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A373" t="s">
-        <v>20</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
